--- a/pre-claim-demo/src/main/webapp/resources/uploads/Import Case.xlsx
+++ b/pre-claim-demo/src/main/webapp/resources/uploads/Import Case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dixon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Pre-Claim Repositories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>Policy Number</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Claimant City</t>
   </si>
   <si>
-    <t>Claimant Zone</t>
-  </si>
-  <si>
-    <t>Claimant State</t>
-  </si>
-  <si>
     <t>Investigation Category</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
     <t>Full Investigation</t>
   </si>
   <si>
@@ -114,6 +102,39 @@
   </si>
   <si>
     <t>DFDF</t>
+  </si>
+  <si>
+    <t>Insured DOB</t>
+  </si>
+  <si>
+    <t>Insured DOD</t>
+  </si>
+  <si>
+    <t>Intimation Type</t>
+  </si>
+  <si>
+    <t>Nominee Name</t>
+  </si>
+  <si>
+    <t>Nominee Mob</t>
+  </si>
+  <si>
+    <t>Nominee Address</t>
+  </si>
+  <si>
+    <t>Insured Address</t>
+  </si>
+  <si>
+    <t>PIV</t>
+  </si>
+  <si>
+    <t>PIRV</t>
+  </si>
+  <si>
+    <t>LIVE</t>
+  </si>
+  <si>
+    <t>Thane</t>
   </si>
 </sst>
 </file>
@@ -149,8 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,274 +453,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F2" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G2">
+        <v>100000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F3" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G3">
+        <v>100000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F4" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G4">
+        <v>100000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F5" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F6" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G6">
+        <v>100000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F7" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G7">
+        <v>100000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F8" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G8">
+        <v>100000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E9" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F9" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G9">
+        <v>100000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E10" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G10">
+        <v>100000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" s="1">
+        <v>38011</v>
+      </c>
+      <c r="F11" s="1">
+        <v>34260</v>
+      </c>
+      <c r="G11">
+        <v>100000</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>100000</v>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
